--- a/PTBR/Lang/PTBR/Dialog/Drama/casino_clerk.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/Drama/casino_clerk.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ABE6B7-C282-4924-B506-7416ECA2571C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,72 +36,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enableTone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scratch_check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今日初めての来店{かな}？スクラッチカードをどうぞ！</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>if2</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>text_JP</t>
+  </si>
+  <si>
+    <t>text_EN</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>enableTone</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>main2</t>
+  </si>
+  <si>
+    <t>scratch_check</t>
+  </si>
+  <si>
+    <t>今日初めての来店{かな}？スクラッチカードをどうぞ！</t>
   </si>
   <si>
     <t xml:space="preserve">This is your first visit today, yes? Here is your free scratch card! </t>
   </si>
   <si>
-    <t xml:space="preserve">invoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get_scratch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reload</t>
+    <t>invoke</t>
+  </si>
+  <si>
+    <t>get_scratch</t>
+  </si>
+  <si>
+    <t>reload</t>
   </si>
   <si>
     <r>
@@ -96,7 +112,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">黄金の鐘が、幸運を告げる…世界唯一のカジノ飛空艇「フォーチュンベル」へようこそ！安心して財布が空っぽになるまで楽しんでいって</t>
+      <t>黄金の鐘が、幸運を告げる…世界唯一のカジノ飛空艇「フォーチュンベル」へようこそ！安心して財布が空っぽになるまで楽しんでいって</t>
     </r>
     <r>
       <rPr>
@@ -106,7 +122,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">{</t>
+      <t>{</t>
     </r>
     <r>
       <rPr>
@@ -116,7 +132,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">くれ</t>
+      <t>くれ</t>
     </r>
     <r>
       <rPr>
@@ -126,7 +142,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">}</t>
+      <t>}</t>
     </r>
     <r>
       <rPr>
@@ -140,56 +156,37 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The golden bell heralds good fortune... Welcome to the 'Fortune Bell,' the world's only casino airship. Feel free to enjoy until your wallet is empty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#guild欢迎回来，#pc。你现在的等级是#guild_title{语尾}。今天有什么事{语尾}？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice/bye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancel</t>
+    <t>The golden bell heralds good fortune... Welcome to the 'Fortune Bell,' the world's only casino airship. Feel free to enjoy until your wallet is empty.</t>
+  </si>
+  <si>
+    <t>inject</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>choice/bye</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta é sua primeira visita hoje, certo? Aqui está seu cartão de raspadinha grátis!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sino dourado anuncia boa sorte... Bem-vindo ao 'Sino da Fortuna', o único dirigível cassino do mundo. Sinta-se à vontade para aproveitar até que sua carteira esteja vazia.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -222,7 +219,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -230,72 +227,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
+        <color rgb="FFCC0000"/>
         <name val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
-        <family val="2"/>
-        <color rgb="FFCC0000"/>
       </font>
       <fill>
         <patternFill>
@@ -304,6 +254,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -362,62 +313,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -470,174 +437,171 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.28"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" customWidth="1"/>
+    <col min="11" max="11" width="114.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="136.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="1" t="n">
-        <f aca="false">MAX(I4:I1048576)</f>
+    <row r="2" spans="1:12">
+      <c r="I2">
+        <f>MAX(I4:I1048576)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="1" t="s">
+    <row r="5" spans="1:12">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I10" s="1" t="n">
+    <row r="10" spans="1:12">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="1" t="s">
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="1" t="s">
+    <row r="12" spans="1:12">
+      <c r="E12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I14" s="1" t="n">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="E16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="1" t="s">
+      <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="1" t="s">
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="1" t="s">
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>